--- a/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>126700.0</v>
+        <v>127300.0</v>
       </c>
     </row>
     <row r="4">

--- a/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>206750.0</v>
+        <v>72025.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>127300.0</v>
+        <v>59000.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>113425.0</v>
+        <v>42050.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/MultiBookings_ol.xlsx
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>72025.0</v>
+        <v>76525.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>59000.0</v>
+        <v>63400.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>42050.0</v>
+        <v>61150.0</v>
       </c>
     </row>
   </sheetData>
